--- a/diagrama/tabelaPreditivaExcel.xlsx
+++ b/diagrama/tabelaPreditivaExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Desktop\gitCC\lexico\diagrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6804F90-42A1-4984-9E0D-B728061BFCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB51D4F6-6628-4CBC-BE8D-B877E369E4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09CC994E-BD2E-4730-A4E1-BFBF4594A9E7}"/>
+    <workbookView xWindow="15585" yWindow="3750" windowWidth="11880" windowHeight="11325" xr2:uid="{09CC994E-BD2E-4730-A4E1-BFBF4594A9E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>S</t>
   </si>
@@ -540,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A2DA23-7D44-4317-9E61-C78EE62B255A}">
-  <dimension ref="A2:AB27"/>
+  <dimension ref="A2:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,10 +552,9 @@
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="14" max="14" width="10.140625" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
@@ -602,43 +601,40 @@
         <v>26</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -720,11 +716,8 @@
       <c r="AA3">
         <v>-1</v>
       </c>
-      <c r="AB3">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -806,11 +799,8 @@
       <c r="AA4">
         <v>-1</v>
       </c>
-      <c r="AB4">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -851,16 +841,16 @@
         <v>-1</v>
       </c>
       <c r="N5">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="O5">
         <v>-1</v>
       </c>
       <c r="P5">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="R5">
         <v>-1</v>
@@ -892,11 +882,8 @@
       <c r="AA5">
         <v>-1</v>
       </c>
-      <c r="AB5">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -978,11 +965,8 @@
       <c r="AA6">
         <v>-1</v>
       </c>
-      <c r="AB6">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1059,16 +1043,13 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA7">
-        <v>6</v>
-      </c>
-      <c r="AB7">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1150,11 +1131,8 @@
       <c r="AA8">
         <v>-1</v>
       </c>
-      <c r="AB8">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1236,11 +1214,8 @@
       <c r="AA9">
         <v>-1</v>
       </c>
-      <c r="AB9">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1322,11 +1297,8 @@
       <c r="AA10">
         <v>-1</v>
       </c>
-      <c r="AB10">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1376,7 +1348,7 @@
         <v>15</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="R11">
         <v>-1</v>
@@ -1408,11 +1380,8 @@
       <c r="AA11">
         <v>-1</v>
       </c>
-      <c r="AB11">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1494,11 +1463,8 @@
       <c r="AA12">
         <v>-1</v>
       </c>
-      <c r="AB12">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1580,11 +1546,8 @@
       <c r="AA13">
         <v>-1</v>
       </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1655,22 +1618,19 @@
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="Y14">
         <v>19</v>
       </c>
       <c r="Z14">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1741,22 +1701,19 @@
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="Y15">
         <v>20</v>
       </c>
       <c r="Z15">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
-      <c r="AB15">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1809,16 +1766,16 @@
         <v>-1</v>
       </c>
       <c r="R16">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="S16">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U16">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="V16">
         <v>-1</v>
@@ -1838,11 +1795,8 @@
       <c r="AA16">
         <v>-1</v>
       </c>
-      <c r="AB16">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1913,22 +1867,19 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="Y17">
         <v>24</v>
       </c>
       <c r="Z17">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
-      <c r="AB17">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1984,19 +1935,19 @@
         <v>-1</v>
       </c>
       <c r="S18">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="T18">
         <v>27</v>
       </c>
       <c r="U18">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="V18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W18">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2010,11 +1961,8 @@
       <c r="AA18">
         <v>-1</v>
       </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -2085,22 +2033,19 @@
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="Y19">
         <v>28</v>
       </c>
       <c r="Z19">
-        <v>28</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2162,31 +2107,28 @@
         <v>-1</v>
       </c>
       <c r="U20">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="V20">
         <v>30</v>
       </c>
       <c r="W20">
+        <v>29</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
         <v>30</v>
       </c>
-      <c r="X20">
-        <v>29</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
-      <c r="Z20">
-        <v>-1</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -2257,22 +2199,19 @@
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="Y21">
         <v>33</v>
       </c>
       <c r="Z21">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
-      <c r="AB21">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2343,22 +2282,19 @@
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="Y22">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z22">
-        <v>35</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
     </row>
   </sheetData>

--- a/diagrama/tabelaPreditivaExcel.xlsx
+++ b/diagrama/tabelaPreditivaExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Desktop\gitCC\lexico\diagrama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Desktop\UFU\CC\lexico\diagrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB51D4F6-6628-4CBC-BE8D-B877E369E4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AB7F71-FBF1-43DE-858D-3604B0749276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15585" yWindow="3750" windowWidth="11880" windowHeight="11325" xr2:uid="{09CC994E-BD2E-4730-A4E1-BFBF4594A9E7}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="11505" xr2:uid="{09CC994E-BD2E-4730-A4E1-BFBF4594A9E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A2DA23-7D44-4317-9E61-C78EE62B255A}">
   <dimension ref="A2:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA21" sqref="AA21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,7 +1733,7 @@
         <v>-1</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="H16">
         <v>-1</v>
@@ -1899,7 +1899,7 @@
         <v>-1</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="H18">
         <v>-1</v>
@@ -2065,7 +2065,7 @@
         <v>-1</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>-1</v>
@@ -2098,7 +2098,7 @@
         <v>-1</v>
       </c>
       <c r="R20">
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="S20">
         <v>-1</v>

--- a/diagrama/tabelaPreditivaExcel.xlsx
+++ b/diagrama/tabelaPreditivaExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Desktop\UFU\CC\lexico\diagrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AB7F71-FBF1-43DE-858D-3604B0749276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5C6447-4DF2-4E20-9C00-AE637C2694B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="11505" xr2:uid="{09CC994E-BD2E-4730-A4E1-BFBF4594A9E7}"/>
   </bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="A2:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,7 +1828,7 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="L17">
         <v>-1</v>
@@ -1932,7 +1932,7 @@
         <v>-1</v>
       </c>
       <c r="R18">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="S18">
         <v>27</v>
@@ -2077,7 +2077,7 @@
         <v>-1</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="L20">
         <v>-1</v>
@@ -2098,7 +2098,7 @@
         <v>-1</v>
       </c>
       <c r="R20">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S20">
         <v>-1</v>

--- a/diagrama/tabelaPreditivaExcel.xlsx
+++ b/diagrama/tabelaPreditivaExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Desktop\UFU\CC\lexico\diagrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5C6447-4DF2-4E20-9C00-AE637C2694B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AACEFC-15E7-4678-B004-1B8D86662A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="11505" xr2:uid="{09CC994E-BD2E-4730-A4E1-BFBF4594A9E7}"/>
   </bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="A2:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,7 +1911,7 @@
         <v>-1</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="L18">
         <v>-1</v>
@@ -2101,7 +2101,7 @@
         <v>30</v>
       </c>
       <c r="S20">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="T20">
         <v>-1</v>
@@ -2184,7 +2184,7 @@
         <v>-1</v>
       </c>
       <c r="S21">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="T21">
         <v>-1</v>
@@ -2293,6 +2293,9 @@
       <c r="AA22">
         <v>-1</v>
       </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="L25" s="1"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
